--- a/static/templates/Product_Resource_Management_Plan.xlsx
+++ b/static/templates/Product_Resource_Management_Plan.xlsx
@@ -545,7 +545,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>PRODUCT Resource Management Plan Project</t>
+          <t>Product Implementation Project</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>Enterprise AI/ML Implementation</t>
+          <t>Enterprise Product Implementation</t>
         </is>
       </c>
     </row>
@@ -648,6 +648,7 @@
         </is>
       </c>
     </row>
+    <row r="13"/>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
@@ -776,7 +777,7 @@
     <row r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>Data Science/AI</t>
+          <t>Product Design/Product</t>
         </is>
       </c>
       <c r="B18" s="7" t="n">
@@ -802,7 +803,7 @@
       </c>
       <c r="G18" s="5" t="inlineStr">
         <is>
-          <t>ML, Python, Statistics</t>
+          <t>Development, Python, Statistics</t>
         </is>
       </c>
       <c r="H18" s="5" t="inlineStr">
@@ -852,7 +853,7 @@
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>Data Engineering</t>
+          <t>Manufacturing Engineering</t>
         </is>
       </c>
       <c r="B20" s="7" t="n">
@@ -928,7 +929,7 @@
     <row r="22">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>DevOps/Infrastructure</t>
+          <t>Production Operations/Infrastructure</t>
         </is>
       </c>
       <c r="B22" s="7" t="n">
@@ -992,7 +993,7 @@
       </c>
       <c r="G23" s="5" t="inlineStr">
         <is>
-          <t>Training, Communication</t>
+          <t>Manufacturing, Communication</t>
         </is>
       </c>
       <c r="H23" s="5" t="inlineStr">
@@ -1109,10 +1110,11 @@
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
-          <t>DETAILED STAFFING PLAN</t>
-        </is>
-      </c>
-    </row>
+          <t>DETProductLED STAFFING PLAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -1595,12 +1597,12 @@
       </c>
       <c r="B9" s="5" t="inlineStr">
         <is>
-          <t>Lead Data Scientist</t>
+          <t>Lead Product Designer</t>
         </is>
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>Data Science/AI</t>
+          <t>Product Design/Product</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
@@ -1638,7 +1640,7 @@
       </c>
       <c r="K9" s="5" t="inlineStr">
         <is>
-          <t>ML, Deep Learning, Python</t>
+          <t>Development, Advanced Engineering, Python</t>
         </is>
       </c>
       <c r="L9" s="5" t="inlineStr">
@@ -1663,7 +1665,7 @@
       </c>
       <c r="P9" s="5" t="inlineStr">
         <is>
-          <t>AI Lead</t>
+          <t>Product Lead</t>
         </is>
       </c>
     </row>
@@ -1675,12 +1677,12 @@
       </c>
       <c r="B10" s="5" t="inlineStr">
         <is>
-          <t>Senior Data Scientist</t>
+          <t>Senior Product Designer</t>
         </is>
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>Data Science/AI</t>
+          <t>Product Design/Product</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
@@ -1718,7 +1720,7 @@
       </c>
       <c r="K10" s="5" t="inlineStr">
         <is>
-          <t>ML, Statistics, R/Python</t>
+          <t>Development, Statistics, R/Python</t>
         </is>
       </c>
       <c r="L10" s="5" t="inlineStr">
@@ -1751,12 +1753,12 @@
       </c>
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Product Designer</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>Data Science/AI</t>
+          <t>Product Design/Product</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
@@ -1794,7 +1796,7 @@
       </c>
       <c r="K11" s="5" t="inlineStr">
         <is>
-          <t>ML, Python, Visualization</t>
+          <t>Development, Python, Visualization</t>
         </is>
       </c>
       <c r="L11" s="5" t="inlineStr">
@@ -1827,12 +1829,12 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>Development Engineer</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>Data Science/AI</t>
+          <t>Product Design/Product</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
@@ -1870,7 +1872,7 @@
       </c>
       <c r="K12" s="5" t="inlineStr">
         <is>
-          <t>MLOps, Python, Cloud</t>
+          <t>DevelopmentOps, Python, Cloud</t>
         </is>
       </c>
       <c r="L12" s="5" t="inlineStr">
@@ -1903,12 +1905,12 @@
       </c>
       <c r="B13" s="5" t="inlineStr">
         <is>
-          <t>Junior Data Scientist</t>
+          <t>Junior Product Designer</t>
         </is>
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>Data Science/AI</t>
+          <t>Product Design/Product</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
@@ -2291,12 +2293,12 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Senior Manufacturing Engineer</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>Data Engineering</t>
+          <t>Manufacturing Engineering</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
@@ -2334,7 +2336,7 @@
       </c>
       <c r="K18" s="5" t="inlineStr">
         <is>
-          <t>ETL, Spark, Cloud Platforms</t>
+          <t>ETL, Spark, Manufacturing Systems</t>
         </is>
       </c>
       <c r="L18" s="5" t="inlineStr">
@@ -2371,12 +2373,12 @@
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Manufacturing Engineer</t>
         </is>
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>Data Engineering</t>
+          <t>Manufacturing Engineering</t>
         </is>
       </c>
       <c r="D19" s="5" t="inlineStr">
@@ -2414,7 +2416,7 @@
       </c>
       <c r="K19" s="5" t="inlineStr">
         <is>
-          <t>SQL, Python, Data Pipelines</t>
+          <t>SQL, Python, Data Production Lines</t>
         </is>
       </c>
       <c r="L19" s="5" t="inlineStr">
@@ -2447,12 +2449,12 @@
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>Cloud Data Engineer</t>
+          <t>Cloud Manufacturing Engineer</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>Data Engineering</t>
+          <t>Manufacturing Engineering</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
@@ -2679,12 +2681,12 @@
       </c>
       <c r="B23" s="5" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Production Operations Engineer</t>
         </is>
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>DevOps/Infrastructure</t>
+          <t>Production Operations/Infrastructure</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr">
@@ -2747,7 +2749,7 @@
       </c>
       <c r="P23" s="5" t="inlineStr">
         <is>
-          <t>DevOps Lead</t>
+          <t>Production Operations Lead</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2766,7 @@
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>DevOps/Infrastructure</t>
+          <t>Production Operations/Infrastructure</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
@@ -2878,7 +2880,7 @@
       </c>
       <c r="K25" s="5" t="inlineStr">
         <is>
-          <t>Change Management, Training</t>
+          <t>Change Management, Manufacturing</t>
         </is>
       </c>
       <c r="L25" s="5" t="inlineStr">
@@ -2915,7 +2917,7 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>Training Specialist</t>
+          <t>Manufacturing Specialist</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
@@ -2958,7 +2960,7 @@
       </c>
       <c r="K26" s="5" t="inlineStr">
         <is>
-          <t>Training Design, Facilitation</t>
+          <t>Manufacturing Design, Facilitation</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr">
@@ -3359,6 +3361,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -3571,7 +3574,7 @@
       </c>
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>Lead Data Scientist</t>
+          <t>Lead Product Designer</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr"/>
@@ -3719,7 +3722,7 @@
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Senior Manufacturing Engineer</t>
         </is>
       </c>
       <c r="C7" s="7" t="inlineStr"/>
@@ -3871,7 +3874,7 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Production Operations Engineer</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
@@ -4015,6 +4018,7 @@
         </is>
       </c>
     </row>
+    <row r="11"/>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
@@ -4090,6 +4094,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -4103,22 +4108,22 @@
       </c>
       <c r="C3" s="6" t="inlineStr">
         <is>
-          <t>Python/R</t>
+          <t>CAD/Design Tools</t>
         </is>
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Product Engineering</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>Data Engineering</t>
+          <t>Manufacturing Engineering</t>
         </is>
       </c>
       <c r="F3" s="6" t="inlineStr">
         <is>
-          <t>Cloud Platforms</t>
+          <t>Manufacturing Systems</t>
         </is>
       </c>
       <c r="G3" s="6" t="inlineStr">
@@ -4138,7 +4143,7 @@
       </c>
       <c r="J3" s="6" t="inlineStr">
         <is>
-          <t>DevOps</t>
+          <t>Production Operations</t>
         </is>
       </c>
       <c r="K3" s="6" t="inlineStr">
@@ -4210,7 +4215,7 @@
       </c>
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>Lead Data Scientist</t>
+          <t>Lead Product Designer</t>
         </is>
       </c>
       <c r="C5" s="10" t="n">
@@ -4300,7 +4305,7 @@
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Senior Manufacturing Engineer</t>
         </is>
       </c>
       <c r="C7" s="10" t="n">
@@ -4390,7 +4395,7 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Production Operations Engineer</t>
         </is>
       </c>
       <c r="C9" s="10" t="n">
@@ -4472,6 +4477,7 @@
         <v>3.2</v>
       </c>
     </row>
+    <row r="11"/>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
@@ -4560,6 +4566,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -4719,7 +4726,7 @@
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Data Science/AI</t>
+          <t>Product Design/Product</t>
         </is>
       </c>
       <c r="B6" s="7" t="inlineStr">
@@ -4823,7 +4830,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Data Engineering</t>
+          <t>Manufacturing Engineering</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -4927,7 +4934,7 @@
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>DevOps/Infrastructure</t>
+          <t>Production Operations/Infrastructure</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -5127,6 +5134,8 @@
         </is>
       </c>
     </row>
+    <row r="14"/>
+    <row r="15"/>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
@@ -5234,6 +5243,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -5326,7 +5336,7 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>Team lacks required ML expertise</t>
+          <t>Team lacks required Development expertise</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
@@ -5346,7 +5356,7 @@
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>Training and external consultants</t>
+          <t>Manufacturing and external consultants</t>
         </is>
       </c>
       <c r="G5" s="5" t="inlineStr">
@@ -5612,6 +5622,8 @@
         </is>
       </c>
     </row>
+    <row r="12"/>
+    <row r="13"/>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>

--- a/static/templates/Product_Resource_Management_Plan.xlsx
+++ b/static/templates/Product_Resource_Management_Plan.xlsx
@@ -545,7 +545,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Product Implementation Project</t>
+          <t>PRODUCT Resource Management Plan Project</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>Enterprise Product Implementation</t>
+          <t>Enterprise AI/ML Implementation</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,6 @@
         </is>
       </c>
     </row>
-    <row r="13"/>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
@@ -777,7 +776,7 @@
     <row r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>Product Design/Product</t>
+          <t>Data Science/AI</t>
         </is>
       </c>
       <c r="B18" s="7" t="n">
@@ -803,7 +802,7 @@
       </c>
       <c r="G18" s="5" t="inlineStr">
         <is>
-          <t>Development, Python, Statistics</t>
+          <t>ML, Python, Statistics</t>
         </is>
       </c>
       <c r="H18" s="5" t="inlineStr">
@@ -853,7 +852,7 @@
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>Manufacturing Engineering</t>
+          <t>Data Engineering</t>
         </is>
       </c>
       <c r="B20" s="7" t="n">
@@ -929,7 +928,7 @@
     <row r="22">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>Production Operations/Infrastructure</t>
+          <t>DevOps/Infrastructure</t>
         </is>
       </c>
       <c r="B22" s="7" t="n">
@@ -993,7 +992,7 @@
       </c>
       <c r="G23" s="5" t="inlineStr">
         <is>
-          <t>Manufacturing, Communication</t>
+          <t>Training, Communication</t>
         </is>
       </c>
       <c r="H23" s="5" t="inlineStr">
@@ -1110,11 +1109,10 @@
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
         <is>
-          <t>DETProductLED STAFFING PLAN</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
+          <t>DETAILED STAFFING PLAN</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -1597,12 +1595,12 @@
       </c>
       <c r="B9" s="5" t="inlineStr">
         <is>
-          <t>Lead Product Designer</t>
+          <t>Lead Data Scientist</t>
         </is>
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>Product Design/Product</t>
+          <t>Data Science/AI</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
@@ -1640,7 +1638,7 @@
       </c>
       <c r="K9" s="5" t="inlineStr">
         <is>
-          <t>Development, Advanced Engineering, Python</t>
+          <t>ML, Deep Learning, Python</t>
         </is>
       </c>
       <c r="L9" s="5" t="inlineStr">
@@ -1665,7 +1663,7 @@
       </c>
       <c r="P9" s="5" t="inlineStr">
         <is>
-          <t>Product Lead</t>
+          <t>AI Lead</t>
         </is>
       </c>
     </row>
@@ -1677,12 +1675,12 @@
       </c>
       <c r="B10" s="5" t="inlineStr">
         <is>
-          <t>Senior Product Designer</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>Product Design/Product</t>
+          <t>Data Science/AI</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
@@ -1720,7 +1718,7 @@
       </c>
       <c r="K10" s="5" t="inlineStr">
         <is>
-          <t>Development, Statistics, R/Python</t>
+          <t>ML, Statistics, R/Python</t>
         </is>
       </c>
       <c r="L10" s="5" t="inlineStr">
@@ -1753,12 +1751,12 @@
       </c>
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>Product Designer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>Product Design/Product</t>
+          <t>Data Science/AI</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
@@ -1796,7 +1794,7 @@
       </c>
       <c r="K11" s="5" t="inlineStr">
         <is>
-          <t>Development, Python, Visualization</t>
+          <t>ML, Python, Visualization</t>
         </is>
       </c>
       <c r="L11" s="5" t="inlineStr">
@@ -1829,12 +1827,12 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>Development Engineer</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>Product Design/Product</t>
+          <t>Data Science/AI</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
@@ -1872,7 +1870,7 @@
       </c>
       <c r="K12" s="5" t="inlineStr">
         <is>
-          <t>DevelopmentOps, Python, Cloud</t>
+          <t>MLOps, Python, Cloud</t>
         </is>
       </c>
       <c r="L12" s="5" t="inlineStr">
@@ -1905,12 +1903,12 @@
       </c>
       <c r="B13" s="5" t="inlineStr">
         <is>
-          <t>Junior Product Designer</t>
+          <t>Junior Data Scientist</t>
         </is>
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>Product Design/Product</t>
+          <t>Data Science/AI</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
@@ -2293,12 +2291,12 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>Senior Manufacturing Engineer</t>
+          <t>Senior Data Engineer</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>Manufacturing Engineering</t>
+          <t>Data Engineering</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
@@ -2336,7 +2334,7 @@
       </c>
       <c r="K18" s="5" t="inlineStr">
         <is>
-          <t>ETL, Spark, Manufacturing Systems</t>
+          <t>ETL, Spark, Cloud Platforms</t>
         </is>
       </c>
       <c r="L18" s="5" t="inlineStr">
@@ -2373,12 +2371,12 @@
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t>Manufacturing Engineer</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>Manufacturing Engineering</t>
+          <t>Data Engineering</t>
         </is>
       </c>
       <c r="D19" s="5" t="inlineStr">
@@ -2416,7 +2414,7 @@
       </c>
       <c r="K19" s="5" t="inlineStr">
         <is>
-          <t>SQL, Python, Data Production Lines</t>
+          <t>SQL, Python, Data Pipelines</t>
         </is>
       </c>
       <c r="L19" s="5" t="inlineStr">
@@ -2449,12 +2447,12 @@
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>Cloud Manufacturing Engineer</t>
+          <t>Cloud Data Engineer</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>Manufacturing Engineering</t>
+          <t>Data Engineering</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
@@ -2681,12 +2679,12 @@
       </c>
       <c r="B23" s="5" t="inlineStr">
         <is>
-          <t>Production Operations Engineer</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>Production Operations/Infrastructure</t>
+          <t>DevOps/Infrastructure</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr">
@@ -2749,7 +2747,7 @@
       </c>
       <c r="P23" s="5" t="inlineStr">
         <is>
-          <t>Production Operations Lead</t>
+          <t>DevOps Lead</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2764,7 @@
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>Production Operations/Infrastructure</t>
+          <t>DevOps/Infrastructure</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
@@ -2880,7 +2878,7 @@
       </c>
       <c r="K25" s="5" t="inlineStr">
         <is>
-          <t>Change Management, Manufacturing</t>
+          <t>Change Management, Training</t>
         </is>
       </c>
       <c r="L25" s="5" t="inlineStr">
@@ -2917,7 +2915,7 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>Manufacturing Specialist</t>
+          <t>Training Specialist</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
@@ -2960,7 +2958,7 @@
       </c>
       <c r="K26" s="5" t="inlineStr">
         <is>
-          <t>Manufacturing Design, Facilitation</t>
+          <t>Training Design, Facilitation</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr">
@@ -3361,7 +3359,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -3574,7 +3571,7 @@
       </c>
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>Lead Product Designer</t>
+          <t>Lead Data Scientist</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr"/>
@@ -3722,7 +3719,7 @@
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>Senior Manufacturing Engineer</t>
+          <t>Senior Data Engineer</t>
         </is>
       </c>
       <c r="C7" s="7" t="inlineStr"/>
@@ -3874,7 +3871,7 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>Production Operations Engineer</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
@@ -4018,7 +4015,6 @@
         </is>
       </c>
     </row>
-    <row r="11"/>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
@@ -4094,7 +4090,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -4108,22 +4103,22 @@
       </c>
       <c r="C3" s="6" t="inlineStr">
         <is>
-          <t>CAD/Design Tools</t>
+          <t>Python/R</t>
         </is>
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Product Engineering</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>Manufacturing Engineering</t>
+          <t>Data Engineering</t>
         </is>
       </c>
       <c r="F3" s="6" t="inlineStr">
         <is>
-          <t>Manufacturing Systems</t>
+          <t>Cloud Platforms</t>
         </is>
       </c>
       <c r="G3" s="6" t="inlineStr">
@@ -4143,7 +4138,7 @@
       </c>
       <c r="J3" s="6" t="inlineStr">
         <is>
-          <t>Production Operations</t>
+          <t>DevOps</t>
         </is>
       </c>
       <c r="K3" s="6" t="inlineStr">
@@ -4215,7 +4210,7 @@
       </c>
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>Lead Product Designer</t>
+          <t>Lead Data Scientist</t>
         </is>
       </c>
       <c r="C5" s="10" t="n">
@@ -4305,7 +4300,7 @@
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>Senior Manufacturing Engineer</t>
+          <t>Senior Data Engineer</t>
         </is>
       </c>
       <c r="C7" s="10" t="n">
@@ -4395,7 +4390,7 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>Production Operations Engineer</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="C9" s="10" t="n">
@@ -4477,7 +4472,6 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="11"/>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
@@ -4566,7 +4560,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -4726,7 +4719,7 @@
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Product Design/Product</t>
+          <t>Data Science/AI</t>
         </is>
       </c>
       <c r="B6" s="7" t="inlineStr">
@@ -4830,7 +4823,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>Manufacturing Engineering</t>
+          <t>Data Engineering</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -4934,7 +4927,7 @@
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>Production Operations/Infrastructure</t>
+          <t>DevOps/Infrastructure</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -5134,8 +5127,6 @@
         </is>
       </c>
     </row>
-    <row r="14"/>
-    <row r="15"/>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
@@ -5243,7 +5234,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -5336,7 +5326,7 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>Team lacks required Development expertise</t>
+          <t>Team lacks required ML expertise</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
@@ -5356,7 +5346,7 @@
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>Manufacturing and external consultants</t>
+          <t>Training and external consultants</t>
         </is>
       </c>
       <c r="G5" s="5" t="inlineStr">
@@ -5622,8 +5612,6 @@
         </is>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13"/>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
